--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-793770.8737420175</v>
+        <v>-795658.4552584193</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>175.4015616590269</v>
+        <v>150.8020682067238</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>111.0108628978216</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>101.3944859595954</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>18.198255209169</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>268.2873575894745</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>9.461970681989216</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>7.665112498293046</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>26.62426954966122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>15.14483238681376</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>118.9621335895198</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>113.5415402216318</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>175.9880246214064</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113171</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>134.0409264559677</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>249.7727942831273</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>89.15058872626261</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.38162151975406</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>125.3479015531185</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>206.8064269214858</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>122.3137095599317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>3.778132169880251</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02976576477860959</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965534</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>19.67402846882904</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437423</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>93.71057173897911</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>55.21598883571498</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898725</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857177</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692859</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329066</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415222</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>777.3160057778002</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="C2" t="n">
-        <v>777.3160057778002</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="D2" t="n">
-        <v>777.3160057778002</v>
+        <v>1483.703156598057</v>
       </c>
       <c r="E2" t="n">
-        <v>391.527753179556</v>
+        <v>1097.914903999813</v>
       </c>
       <c r="F2" t="n">
-        <v>384.5822524303525</v>
+        <v>686.9289992102051</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y2" t="n">
-        <v>777.3160057778002</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,13 +4443,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>586.579880314782</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="U4" t="n">
-        <v>477.5636529541582</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1245.039635429691</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="C5" t="n">
-        <v>876.0771184892794</v>
+        <v>1512.155724216995</v>
       </c>
       <c r="D5" t="n">
-        <v>876.0771184892794</v>
+        <v>1153.890025610244</v>
       </c>
       <c r="E5" t="n">
-        <v>490.2888658910352</v>
+        <v>1153.890025610244</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>742.9041208206368</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>324.9403127188236</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304456</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.505393690771</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1245.039635429691</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1245.039635429691</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>506.0980231475335</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>506.0980231475335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2092.477155601806</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.514638661394</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1365.248940054644</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>979.4606874563995</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>607.965212903889</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>393.6767897220517</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,7 +5039,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,19 +5118,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183168</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.9563154684962</v>
+        <v>510.2366179610304</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344999</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344999</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.6047802987359</v>
+        <v>510.2366179610304</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829216</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1363.521395349854</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1074.392756563412</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V16" t="n">
-        <v>1074.392756563412</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="W16" t="n">
-        <v>784.9755865264517</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X16" t="n">
-        <v>784.9755865264517</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y16" t="n">
-        <v>564.1830073829216</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405893</v>
+        <v>506.3210135240263</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>337.3848305961194</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>187.2681911837836</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5671,10 +5671,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1449.035844780373</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1225.250429569879</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>936.1217907834367</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>681.4373025775499</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>392.0201325405893</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X19" t="n">
-        <v>392.0201325405893</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405893</v>
+        <v>506.3210135240263</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>371.7442270155259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>371.7442270155259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>371.7442270155259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>223.8311334331328</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570734</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>820.5263570570734</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X22" t="n">
-        <v>592.536806159056</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>371.7442270155259</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>542.1367719529251</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
         <v>244.1070389581962</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655743</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286137</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y25" t="n">
-        <v>542.1367719529251</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822468</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>846.3978353108166</v>
+      </c>
+      <c r="C28" t="n">
+        <v>677.4616523829097</v>
+      </c>
+      <c r="D28" t="n">
+        <v>527.345012970574</v>
+      </c>
+      <c r="E28" t="n">
+        <v>527.3450129705741</v>
+      </c>
+      <c r="F28" t="n">
+        <v>527.3450129705742</v>
+      </c>
+      <c r="G28" t="n">
+        <v>359.1696912903949</v>
+      </c>
+      <c r="H28" t="n">
+        <v>208.7516828383383</v>
+      </c>
+      <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
-      <c r="C28" t="n">
-        <v>97.21709146028587</v>
-      </c>
-      <c r="D28" t="n">
-        <v>97.21709146028587</v>
-      </c>
-      <c r="E28" t="n">
-        <v>97.21709146028586</v>
-      </c>
-      <c r="F28" t="n">
-        <v>97.21709146028586</v>
-      </c>
-      <c r="G28" t="n">
-        <v>97.21709146028586</v>
-      </c>
-      <c r="H28" t="n">
-        <v>97.21709146028586</v>
-      </c>
-      <c r="I28" t="n">
-        <v>97.21709146028586</v>
-      </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1495.099975436812</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1295.179965352364</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387593</v>
+        <v>1295.179965352364</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011508</v>
+        <v>1295.179965352364</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>1295.179965352364</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1295.179965352364</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>846.3978353108166</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6485,7 +6485,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.38996307402</v>
+        <v>565.4200295030868</v>
       </c>
       <c r="C31" t="n">
-        <v>452.214645427484</v>
+        <v>565.4200295030868</v>
       </c>
       <c r="D31" t="n">
-        <v>452.214645427484</v>
+        <v>471.0642553721218</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264618</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933505</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962058</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818949</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652485</v>
+        <v>730.4517433652461</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030893</v>
+        <v>565.4200295030868</v>
       </c>
     </row>
     <row r="32">
@@ -6692,37 +6692,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506727</v>
@@ -6847,7 +6847,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7005,37 +7005,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,46 +7163,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7217,7 +7217,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7242,37 +7242,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,16 +7588,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025263</v>
@@ -7606,10 +7606,10 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010321</v>
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735871</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>20.6378986413543</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>53.70528087699604</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,13 +23467,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.59662873068842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>87.50663460242151</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>36.7502040534637</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>57.28337392030656</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>148.5391884638492</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>20.07314646981276</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709159</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.27094379216312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>106.1862202339125</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.5989577886015</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.55667754918312</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
@@ -26323,10 +26323,10 @@
         <v>175963.0768819691</v>
       </c>
       <c r="F2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="G2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819689</v>
       </c>
       <c r="H2" t="n">
         <v>175963.076881969</v>
@@ -26335,10 +26335,10 @@
         <v>175963.076881969</v>
       </c>
       <c r="J2" t="n">
-        <v>175963.0768819689</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="K2" t="n">
-        <v>183069.9618053713</v>
+        <v>183069.9618053714</v>
       </c>
       <c r="L2" t="n">
         <v>184734.3982194639</v>
@@ -26347,7 +26347,7 @@
         <v>184734.3982194641</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194639</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086677</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284558</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007511</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
+        <v>7916.731656007497</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007533</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007498</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020405</v>
+        <v>26081.35417020401</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732802</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732802</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732794</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732795</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732796</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-636009.6077744111</v>
       </c>
       <c r="C6" t="n">
-        <v>-46041.72855986659</v>
+        <v>-46041.72855986661</v>
       </c>
       <c r="D6" t="n">
-        <v>-46041.72855986661</v>
+        <v>-46041.72855986666</v>
       </c>
       <c r="E6" t="n">
-        <v>-449101.0171996512</v>
+        <v>-449198.4763256233</v>
       </c>
       <c r="F6" t="n">
-        <v>76059.01927724484</v>
+        <v>75961.5601512728</v>
       </c>
       <c r="G6" t="n">
-        <v>76059.01927724488</v>
+        <v>75961.56015127264</v>
       </c>
       <c r="H6" t="n">
-        <v>76059.01927724485</v>
+        <v>75961.56015127269</v>
       </c>
       <c r="I6" t="n">
-        <v>76059.01927724472</v>
+        <v>75961.56015127274</v>
       </c>
       <c r="J6" t="n">
-        <v>-100364.1999153482</v>
+        <v>-100461.6590413203</v>
       </c>
       <c r="K6" t="n">
-        <v>16197.79380209868</v>
+        <v>16179.3000641647</v>
       </c>
       <c r="L6" t="n">
-        <v>46340.86670124381</v>
+        <v>46340.86670124356</v>
       </c>
       <c r="M6" t="n">
-        <v>-78117.24173172636</v>
+        <v>-78117.24173172629</v>
       </c>
       <c r="N6" t="n">
-        <v>56683.77350211069</v>
+        <v>56683.77350211053</v>
       </c>
       <c r="O6" t="n">
-        <v>56683.77350211055</v>
+        <v>56683.77350211058</v>
       </c>
       <c r="P6" t="n">
-        <v>12521.16819926503</v>
+        <v>12521.16819926517</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108346</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>238.3826083617681</v>
+        <v>262.9821018140711</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>101.1346760521973</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>184.8873882823823</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>388.6777905325424</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>55.63541517488261</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6835682680297</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>210.9195408538017</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>380.2517761920502</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>201.303487970844</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>27.70305839063809</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964058</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296115</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>331.0622756918206</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412253</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043176</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415072</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.6396602952061</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
